--- a/DLRM_memory_trace/access.xlsx
+++ b/DLRM_memory_trace/access.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RA data\dlrm-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RA data\dlrm-main\DLRM_memory_trace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E079B520-7F4E-4C10-B0DE-278CB9C91746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89B5E74-6239-4C22-8B9D-EEAD69B06B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="3" r:id="rId1"/>
     <sheet name="normal" sheetId="4" r:id="rId2"/>
     <sheet name="complicated" sheetId="2" r:id="rId3"/>
+    <sheet name="complicated casting" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="63">
   <si>
     <t>embedding_table_access</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +275,10 @@
   </si>
   <si>
     <t xml:space="preserve">update emb </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grads</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,6 +549,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5014A2-1ADC-49EA-8445-7F9F54841884}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1323,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332F35F0-0D88-4B44-ADFF-82D04E14EDCF}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C10" sqref="C10:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1375,8 +1395,8 @@
       <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>7</v>
+      <c r="E2" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="F2" s="18">
         <v>0</v>
@@ -1398,8 +1418,8 @@
       <c r="D3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>50</v>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="F3" s="18">
         <v>1</v>
@@ -1440,8 +1460,8 @@
       <c r="D5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>19</v>
+      <c r="E5" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F5" s="18">
         <v>3</v>
@@ -1461,8 +1481,8 @@
       <c r="D6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>52</v>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="18">
         <v>4</v>
@@ -1503,8 +1523,8 @@
       <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>4</v>
+      <c r="E8" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="F8" s="20">
         <v>6</v>
@@ -1524,8 +1544,8 @@
       <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>54</v>
+      <c r="E9" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="20">
         <v>7</v>
@@ -1566,8 +1586,8 @@
       <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>8</v>
+      <c r="E11" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="F11" s="22">
         <v>9</v>
@@ -1587,8 +1607,8 @@
       <c r="D12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>56</v>
+      <c r="E12" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="24">
         <v>10</v>
@@ -1663,7 +1683,7 @@
       <c r="D16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="24">
         <v>14</v>
       </c>
@@ -1676,7 +1696,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="26">
         <v>15</v>
       </c>
@@ -1689,7 +1709,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="26">
         <v>16</v>
       </c>
@@ -1698,7 +1718,7 @@
       </c>
     </row>
     <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E19" s="15"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="26">
         <v>17</v>
       </c>
@@ -1707,13 +1727,406 @@
       </c>
     </row>
     <row r="20" spans="3:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="15"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="28">
         <v>18</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3CC861-380D-4040-AB4D-E02647A9DB34}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="18">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="18">
+        <v>5</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="20">
+        <v>6</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="20">
+        <v>7</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="22">
+        <v>8</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="22">
+        <v>9</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="26">
+        <v>10</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="26">
+        <v>11</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="26">
+        <v>12</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="28">
+        <v>13</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="3:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="34"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
